--- a/biology/Botanique/Espace_François-Mitterrand_(Château-Chinon)/Espace_François-Mitterrand_(Château-Chinon).xlsx
+++ b/biology/Botanique/Espace_François-Mitterrand_(Château-Chinon)/Espace_François-Mitterrand_(Château-Chinon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Espace_Fran%C3%A7ois-Mitterrand_(Ch%C3%A2teau-Chinon)</t>
+          <t>Espace_François-Mitterrand_(Château-Chinon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'espace François-Mitterrand est un parc arboré de chênes et un lieu de mémoire allégorique dédié à l'ancien résistant, homme politique et président de la République française François Mitterrand (1916-1996) à Château-Chinon dans le Morvan en Bourgogne-Franche-Comté.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Espace_Fran%C3%A7ois-Mitterrand_(Ch%C3%A2teau-Chinon)</t>
+          <t>Espace_François-Mitterrand_(Château-Chinon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant la Seconde Guerre mondiale, après avoir été prisonnier de guerre en particulier au Stalag IXA de Ziegenhain en Allemagne puis s’être évadé le 15 décembre 1941, Mitterrand forme à partir de 1942 son réseau de résistance intérieure française, le rassemblement national des prisonniers de guerre / mouvement national des prisonniers de guerre et déportés (François Mitterrand pendant la Seconde Guerre mondiale).
 En 1944 alors qu'il dirige son réseau de résistance en Bourgogne sous le nom de code « François Morland », il rencontre sa future épouse Danielle Gouze, résistante dans son réseau âgée de 17 ans et habitante de Cluny. Ils se réfugient à l'hôtel Au Vieux Morvan de Château-Chinon, puis se marient à la libération en 1944.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Espace_Fran%C3%A7ois-Mitterrand_(Ch%C3%A2teau-Chinon)</t>
+          <t>Espace_François-Mitterrand_(Château-Chinon)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Musée et espace Mitterrand</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée du Septennat de François Mitterrand est créé en 1986, à la fin du premier mandat présidentiel de François Mitterrand, dans l'ancien couvent Sainte-Claire du XVIIIe siècle.
 L'espace François-Mitterrand est aménagé dans une forêt de chêne, face à la plaine du Bazois, sur le circuit du chemin de promenade qui fait le tour de la colline du Calvaire, aux portes de Château-Chinon dans le parc naturel régional du Morvan. 
